--- a/com.backbase.sample/Test Excel Files/DeleteTestData.xlsx
+++ b/com.backbase.sample/Test Excel Files/DeleteTestData.xlsx
@@ -24,7 +24,7 @@
     <t>Computer Name</t>
   </si>
   <si>
-    <t>Solaris XYZ Computers7000</t>
+    <t>HGNew MAC 800900 Series</t>
   </si>
 </sst>
 </file>
@@ -369,7 +369,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
